--- a/biology/Biologie cellulaire et moléculaire/Exome/Exome.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Exome/Exome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'exome est la partie du génome d'un organisme eucaryote constituée par les exons, c'est-à-dire les parties des gènes qui sont exprimées pour synthétiser les produits fonctionnels sous forme de protéines. C'est la partie du génome la plus directement liée au phénotype de l'organisme, à ses qualités structurelles et fonctionnelles.
-L'exome d'un être humain est estimé à 1,2 % de son génome, ce qui montre l'importance de l'ADN non codant[1]. Divers programmes de recherche visent à analyser l'exome d'ensembles d'individus pour rechercher les variations qui seraient à l'origine de maladies[2].
+L'exome d'un être humain est estimé à 1,2 % de son génome, ce qui montre l'importance de l'ADN non codant. Divers programmes de recherche visent à analyser l'exome d'ensembles d'individus pour rechercher les variations qui seraient à l'origine de maladies.
 </t>
         </is>
       </c>
